--- a/data/_meta/countries.xlsx
+++ b/data/_meta/countries.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\oaer\data\_meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\rice\oaer\data\_meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C14BE86-9988-40B5-802D-BBD750C1CFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">countries!$A$1:$R$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">countries!$A$1:$R$260</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="1890">
   <si>
     <t>iso2</t>
   </si>
@@ -5647,27 +5646,81 @@
   </si>
   <si>
     <t>วานูอาตู</t>
+  </si>
+  <si>
+    <t>เกรนาดา</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>ประเทศอื่นๆ</t>
+  </si>
+  <si>
+    <t>OTH</t>
+  </si>
+  <si>
+    <t>บริติชอินเดียนโอเชี่ยน</t>
+  </si>
+  <si>
+    <t>PUS</t>
+  </si>
+  <si>
+    <t>United States Miscellaneous Pacific Islands</t>
+  </si>
+  <si>
+    <t>United States Pacific Islands</t>
+  </si>
+  <si>
+    <t>สหรัฐอเมริกา (เกาะแปซิฟิก)</t>
+  </si>
+  <si>
+    <t>UNITED STATES OCEANIA</t>
+  </si>
+  <si>
+    <t>แซงปีแยร์</t>
+  </si>
+  <si>
+    <t>เกาะคริสมาสต์</t>
+  </si>
+  <si>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>YUG</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>ยูโกสลาเวีย</t>
+  </si>
+  <si>
+    <t>ลิคเตนสไตน์</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -5692,8 +5745,14 @@
       <name val="DejaVu Sans Thai"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5712,6 +5771,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5726,9 +5791,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5758,12 +5823,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6062,34 +6136,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="7.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="39.44140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="31.44140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="7.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="39.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
     <col min="12" max="12" width="28" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="36.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36.5" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="26.4">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -7510,6 +7584,9 @@
       <c r="H28" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="J28" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>7</v>
       </c>
@@ -7868,6 +7945,9 @@
       <c r="H35" s="8" t="s">
         <v>161</v>
       </c>
+      <c r="J35" s="2" t="s">
+        <v>1877</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>25</v>
       </c>
@@ -8582,50 +8662,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:18" s="15" customFormat="1">
+      <c r="A49" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="15">
         <v>162</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="I49" s="17"/>
+      <c r="J49" s="17" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K49" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="15">
         <v>9</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="15">
         <v>53</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="15" t="s">
         <v>1121</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
         <v>0</v>
       </c>
     </row>
@@ -9763,6 +9848,9 @@
       <c r="H71" s="8" t="s">
         <v>309</v>
       </c>
+      <c r="J71" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="K71" s="2" t="s">
         <v>48</v>
       </c>
@@ -10974,6 +11062,9 @@
       <c r="H94" s="8" t="s">
         <v>1766</v>
       </c>
+      <c r="J94" s="2" t="s">
+        <v>1872</v>
+      </c>
       <c r="K94" s="2" t="s">
         <v>48</v>
       </c>
@@ -13084,6 +13175,9 @@
       <c r="H135" s="8" t="s">
         <v>581</v>
       </c>
+      <c r="J135" s="8" t="s">
+        <v>1889</v>
+      </c>
       <c r="K135" s="2" t="s">
         <v>13</v>
       </c>
@@ -14179,6 +14273,9 @@
       <c r="H156" s="8" t="s">
         <v>668</v>
       </c>
+      <c r="J156" s="13" t="s">
+        <v>668</v>
+      </c>
       <c r="K156" s="2" t="s">
         <v>48</v>
       </c>
@@ -14438,6 +14535,9 @@
       <c r="H161" s="8" t="s">
         <v>688</v>
       </c>
+      <c r="J161" s="8" t="s">
+        <v>688</v>
+      </c>
       <c r="K161" s="2" t="s">
         <v>33</v>
       </c>
@@ -16415,6 +16515,9 @@
       <c r="H199" s="8" t="s">
         <v>1833</v>
       </c>
+      <c r="J199" s="13" t="s">
+        <v>1883</v>
+      </c>
       <c r="K199" s="2" t="s">
         <v>48</v>
       </c>
@@ -16565,6 +16668,9 @@
       <c r="H202" s="8" t="s">
         <v>852</v>
       </c>
+      <c r="J202" s="13" t="s">
+        <v>852</v>
+      </c>
       <c r="K202" s="2" t="s">
         <v>13</v>
       </c>
@@ -18035,6 +18141,9 @@
       <c r="H230" s="8" t="s">
         <v>965</v>
       </c>
+      <c r="J230" s="8" t="s">
+        <v>965</v>
+      </c>
       <c r="K230" s="2" t="s">
         <v>7</v>
       </c>
@@ -18899,107 +19008,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
-      <c r="A247" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C247" s="3">
-        <v>858</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>1821</v>
-      </c>
-      <c r="F247" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>1820</v>
-      </c>
-      <c r="H247" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J247" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K247" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L247" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M247" s="3">
-        <v>19</v>
-      </c>
-      <c r="N247" s="3">
-        <v>419</v>
-      </c>
-      <c r="O247" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="P247" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="Q247" s="3">
-        <v>0</v>
-      </c>
-      <c r="R247" s="3">
+    <row r="247" spans="1:18" s="6" customFormat="1">
+      <c r="A247" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D247" s="7"/>
+      <c r="E247" s="9" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I247" s="9"/>
+      <c r="J247" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K247" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L247" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="M247" s="6">
+        <v>9</v>
+      </c>
+      <c r="N247" s="6">
+        <v>57</v>
+      </c>
+      <c r="O247" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P247" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q247" s="6">
+        <v>0</v>
+      </c>
+      <c r="R247" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:18">
       <c r="A248" s="2" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C248" s="3">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>1551</v>
+        <v>1821</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>1044</v>
+        <v>1820</v>
       </c>
       <c r="H248" s="8" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>523</v>
+        <v>49</v>
       </c>
       <c r="M248" s="3">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="N248" s="3">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="Q248" s="3">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="R248" s="3">
         <v>0</v>
@@ -19007,55 +19112,52 @@
     </row>
     <row r="249" spans="1:18">
       <c r="A249" s="2" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C249" s="3">
-        <v>548</v>
+        <v>860</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>1570</v>
+        <v>1551</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>1569</v>
+        <v>1044</v>
       </c>
       <c r="H249" s="8" t="s">
-        <v>1868</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>1871</v>
+        <v>1045</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>347</v>
+        <v>523</v>
       </c>
       <c r="M249" s="3">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="N249" s="3">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="O249" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="P249" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="Q249" s="3">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="R249" s="3">
         <v>0</v>
@@ -19063,49 +19165,52 @@
     </row>
     <row r="250" spans="1:18">
       <c r="A250" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C250" s="3">
-        <v>862</v>
+        <v>548</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>1817</v>
+        <v>1570</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>1815</v>
+        <v>1048</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>1816</v>
+        <v>1569</v>
       </c>
       <c r="H250" s="8" t="s">
-        <v>1053</v>
+        <v>1868</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>1871</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L250" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="M250" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N250" s="3">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="P250" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="Q250" s="3">
         <v>0</v>
@@ -19116,49 +19221,49 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C251" s="3">
-        <v>704</v>
+        <v>862</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>1527</v>
+        <v>1817</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>1525</v>
+        <v>1815</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>1526</v>
+        <v>1816</v>
       </c>
       <c r="H251" s="8" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="M251" s="3">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="N251" s="3">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="O251" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="P251" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="Q251" s="3">
         <v>0</v>
@@ -19169,46 +19274,49 @@
     </row>
     <row r="252" spans="1:18">
       <c r="A252" s="2" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C252" s="3">
-        <v>92</v>
+        <v>704</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>1056</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>1060</v>
+        <v>1527</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>1060</v>
+        <v>1525</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>1062</v>
+        <v>1526</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="M252" s="3">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="N252" s="3">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="O252" s="3" t="s">
-        <v>1106</v>
+        <v>1437</v>
       </c>
       <c r="P252" s="3" t="s">
-        <v>1107</v>
+        <v>1438</v>
       </c>
       <c r="Q252" s="3">
         <v>0</v>
@@ -19219,31 +19327,28 @@
     </row>
     <row r="253" spans="1:18">
       <c r="A253" s="2" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C253" s="3">
-        <v>850</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>1066</v>
+        <v>92</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="K253" s="2" t="s">
         <v>48</v>
@@ -19272,46 +19377,49 @@
     </row>
     <row r="254" spans="1:18">
       <c r="A254" s="2" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C254" s="3">
-        <v>876</v>
+        <v>850</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>1843</v>
+        <v>1068</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>1843</v>
+        <v>1068</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M254" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N254" s="3">
-        <v>61</v>
+        <v>419</v>
       </c>
       <c r="O254" s="3" t="s">
-        <v>1224</v>
+        <v>1106</v>
       </c>
       <c r="P254" s="3" t="s">
-        <v>1225</v>
+        <v>1107</v>
       </c>
       <c r="Q254" s="3">
         <v>0</v>
@@ -19322,43 +19430,46 @@
     </row>
     <row r="255" spans="1:18">
       <c r="A255" s="2" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C255" s="3">
-        <v>732</v>
+        <v>876</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M255" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N255" s="3">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>1323</v>
+        <v>1224</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>1324</v>
+        <v>1225</v>
       </c>
       <c r="Q255" s="3">
         <v>0</v>
@@ -19369,49 +19480,43 @@
     </row>
     <row r="256" spans="1:18">
       <c r="A256" s="2" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C256" s="3">
-        <v>887</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>1079</v>
+        <v>732</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>1519</v>
+        <v>1075</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>1518</v>
+        <v>1844</v>
       </c>
       <c r="H256" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J256" s="2" t="s">
-        <v>1080</v>
+        <v>1844</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L256" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M256" s="3">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="N256" s="3">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="O256" s="3" t="s">
-        <v>1439</v>
+        <v>1323</v>
       </c>
       <c r="P256" s="3" t="s">
-        <v>1440</v>
+        <v>1324</v>
       </c>
       <c r="Q256" s="3">
         <v>0</v>
@@ -19422,49 +19527,49 @@
     </row>
     <row r="257" spans="1:18">
       <c r="A257" s="2" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C257" s="3">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>902</v>
+        <v>1079</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>1701</v>
+        <v>1519</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>1700</v>
+        <v>1518</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M257" s="3">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="N257" s="3">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="O257" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="P257" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="Q257" s="3">
         <v>0</v>
@@ -19475,58 +19580,182 @@
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C258" s="3">
+        <v>891</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>1888</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L258" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M258" s="3">
+        <v>150</v>
+      </c>
+      <c r="N258" s="3">
+        <v>151</v>
+      </c>
+      <c r="Q258" s="3">
+        <v>0</v>
+      </c>
+      <c r="R258" s="3">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
+      <c r="A259" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C259" s="3">
+        <v>894</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L259" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M259" s="3">
+        <v>2</v>
+      </c>
+      <c r="N259" s="3">
+        <v>202</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Q259" s="3">
+        <v>0</v>
+      </c>
+      <c r="R259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
+      <c r="A260" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C260" s="3">
         <v>716</v>
       </c>
-      <c r="D258" s="4" t="s">
+      <c r="D260" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="E260" s="8" t="s">
         <v>1685</v>
       </c>
-      <c r="F258" s="8" t="s">
+      <c r="F260" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="G258" s="8" t="s">
+      <c r="G260" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="H258" s="8" t="s">
+      <c r="H260" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="J258" s="2" t="s">
+      <c r="J260" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="K258" s="2" t="s">
+      <c r="K260" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L258" s="2" t="s">
+      <c r="L260" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M258" s="3">
+      <c r="M260" s="3">
         <v>2</v>
       </c>
-      <c r="N258" s="3">
+      <c r="N260" s="3">
         <v>202</v>
       </c>
-      <c r="O258" s="3" t="s">
+      <c r="O260" s="3" t="s">
         <v>1443</v>
       </c>
-      <c r="P258" s="3" t="s">
+      <c r="P260" s="3" t="s">
         <v>1444</v>
       </c>
-      <c r="Q258" s="3">
-        <v>0</v>
-      </c>
-      <c r="R258" s="3">
-        <v>0</v>
+      <c r="Q260" s="3">
+        <v>0</v>
+      </c>
+      <c r="R260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
+      <c r="A261" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>